--- a/biology/Botanique/Liste_des_parcs_et_jardins_de_Tours/Liste_des_parcs_et_jardins_de_Tours.xlsx
+++ b/biology/Botanique/Liste_des_parcs_et_jardins_de_Tours/Liste_des_parcs_et_jardins_de_Tours.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page liste les différents parcs et jardins de la ville de Tours, en France, ou se trouvant à sa proximité. Soit plus de 120 espaces verts pour toute la métropole.
 </t>
@@ -511,7 +523,9 @@
           <t>Jardins</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jardin des Prébendes d'Oé ;
@@ -594,7 +608,9 @@
           <t>Parcs et Lacs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Parc Remarquable du Domaine Royal de Château Gaillard ;
@@ -650,7 +666,9 @@
           <t>Squares</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Square Salancy (Quartier Velpeau) ;
@@ -726,7 +744,9 @@
           <t>Bois et forêts</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bois des Hâtes ;
